--- a/QP_Asigned_Section_List.xlsx
+++ b/QP_Asigned_Section_List.xlsx
@@ -472,7 +472,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>SOM_CIE_34.doc</t>
+          <t>SOM_CIE_3.doc</t>
         </is>
       </c>
     </row>
@@ -492,7 +492,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>SOM_CIE_63.doc</t>
+          <t>SOM_CIE_45.doc</t>
         </is>
       </c>
     </row>
@@ -512,7 +512,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>SOM_CIE_1.doc</t>
+          <t>SOM_CIE_42.doc</t>
         </is>
       </c>
     </row>
@@ -532,7 +532,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>SOM_CIE_11.doc</t>
+          <t>SOM_CIE_44.doc</t>
         </is>
       </c>
     </row>
@@ -552,7 +552,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>SOM_CIE_51.doc</t>
+          <t>SOM_CIE_48.doc</t>
         </is>
       </c>
     </row>
@@ -572,7 +572,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>SOM_CIE_33.doc</t>
+          <t>SOM_CIE_22.doc</t>
         </is>
       </c>
     </row>
@@ -592,7 +592,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>SOM_CIE_5.doc</t>
+          <t>SOM_CIE_6.doc</t>
         </is>
       </c>
     </row>
@@ -612,7 +612,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>SOM_CIE_23.doc</t>
+          <t>SOM_CIE_9.doc</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>SOM_CIE_19.doc</t>
+          <t>SOM_CIE_62.doc</t>
         </is>
       </c>
     </row>
@@ -652,7 +652,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>SOM_CIE_44.doc</t>
+          <t>SOM_CIE_18.doc</t>
         </is>
       </c>
     </row>
@@ -672,7 +672,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>SOM_CIE_16.doc</t>
+          <t>SOM_CIE_37.doc</t>
         </is>
       </c>
     </row>
@@ -692,7 +692,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>SOM_CIE_23.doc</t>
+          <t>SOM_CIE_49.doc</t>
         </is>
       </c>
     </row>
@@ -712,7 +712,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>SOM_CIE_7.doc</t>
+          <t>SOM_CIE_19.doc</t>
         </is>
       </c>
     </row>
@@ -732,7 +732,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>SOM_CIE_56.doc</t>
+          <t>SOM_CIE_13.doc</t>
         </is>
       </c>
     </row>
@@ -752,7 +752,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>SOM_CIE_18.doc</t>
+          <t>SOM_CIE_59.doc</t>
         </is>
       </c>
     </row>
@@ -772,7 +772,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>SOM_CIE_33.doc</t>
+          <t>SOM_CIE_36.doc</t>
         </is>
       </c>
     </row>
@@ -792,7 +792,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>SOM_CIE_42.doc</t>
+          <t>SOM_CIE_20.doc</t>
         </is>
       </c>
     </row>
@@ -812,7 +812,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>SOM_CIE_15.doc</t>
+          <t>SOM_CIE_28.doc</t>
         </is>
       </c>
     </row>
@@ -832,7 +832,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>SOM_CIE_50.doc</t>
+          <t>SOM_CIE_33.doc</t>
         </is>
       </c>
     </row>
@@ -852,7 +852,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>SOM_CIE_16.doc</t>
+          <t>SOM_CIE_64.doc</t>
         </is>
       </c>
     </row>
@@ -872,7 +872,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>SOM_CIE_31.doc</t>
+          <t>SOM_CIE_22.doc</t>
         </is>
       </c>
     </row>
@@ -892,7 +892,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>SOM_CIE_32.doc</t>
+          <t>SOM_CIE_59.doc</t>
         </is>
       </c>
     </row>
@@ -912,7 +912,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>SOM_CIE_17.doc</t>
+          <t>SOM_CIE_23.doc</t>
         </is>
       </c>
     </row>
@@ -932,7 +932,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>SOM_CIE_57.doc</t>
+          <t>SOM_CIE_10.doc</t>
         </is>
       </c>
     </row>
@@ -952,7 +952,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>SOM_CIE_2.doc</t>
+          <t>SOM_CIE_13.doc</t>
         </is>
       </c>
     </row>
@@ -972,7 +972,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>SOM_CIE_39.doc</t>
+          <t>SOM_CIE_56.doc</t>
         </is>
       </c>
     </row>
@@ -992,7 +992,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>SOM_CIE_8.doc</t>
+          <t>SOM_CIE_52.doc</t>
         </is>
       </c>
     </row>
@@ -1012,7 +1012,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>SOM_CIE_55.doc</t>
+          <t>SOM_CIE_46.doc</t>
         </is>
       </c>
     </row>
@@ -1032,7 +1032,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>SOM_CIE_39.doc</t>
+          <t>SOM_CIE_55.doc</t>
         </is>
       </c>
     </row>
@@ -1052,7 +1052,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>SOM_CIE_57.doc</t>
+          <t>SOM_CIE_25.doc</t>
         </is>
       </c>
     </row>
@@ -1072,7 +1072,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>SOM_CIE_44.doc</t>
+          <t>SOM_CIE_46.doc</t>
         </is>
       </c>
     </row>
@@ -1092,7 +1092,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>SOM_CIE_23.doc</t>
+          <t>SOM_CIE_9.doc</t>
         </is>
       </c>
     </row>
@@ -1112,7 +1112,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>SOM_CIE_15.doc</t>
+          <t>SOM_CIE_59.doc</t>
         </is>
       </c>
     </row>
@@ -1132,7 +1132,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>SOM_CIE_1.doc</t>
+          <t>SOM_CIE_33.doc</t>
         </is>
       </c>
     </row>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>SOM_CIE_10.doc</t>
+          <t>SOM_CIE_46.doc</t>
         </is>
       </c>
     </row>
@@ -1172,7 +1172,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>SOM_CIE_57.doc</t>
+          <t>SOM_CIE_50.doc</t>
         </is>
       </c>
     </row>
@@ -1192,7 +1192,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>SOM_CIE_18.doc</t>
+          <t>SOM_CIE_50.doc</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>SOM_CIE_54.doc</t>
+          <t>SOM_CIE_47.doc</t>
         </is>
       </c>
     </row>
@@ -1232,7 +1232,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>SOM_CIE_6.doc</t>
+          <t>SOM_CIE_34.doc</t>
         </is>
       </c>
     </row>
@@ -1252,7 +1252,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>SOM_CIE_59.doc</t>
+          <t>SOM_CIE_13.doc</t>
         </is>
       </c>
     </row>
@@ -1272,7 +1272,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>SOM_CIE_43.doc</t>
+          <t>SOM_CIE_58.doc</t>
         </is>
       </c>
     </row>
@@ -1292,7 +1292,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>SOM_CIE_56.doc</t>
+          <t>SOM_CIE_15.doc</t>
         </is>
       </c>
     </row>
@@ -1312,7 +1312,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>SOM_CIE_9.doc</t>
+          <t>SOM_CIE_17.doc</t>
         </is>
       </c>
     </row>
@@ -1332,7 +1332,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>SOM_CIE_32.doc</t>
+          <t>SOM_CIE_8.doc</t>
         </is>
       </c>
     </row>
@@ -1352,7 +1352,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>SOM_CIE_48.doc</t>
+          <t>SOM_CIE_26.doc</t>
         </is>
       </c>
     </row>
@@ -1372,7 +1372,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>SOM_CIE_30.doc</t>
+          <t>SOM_CIE_1.doc</t>
         </is>
       </c>
     </row>
@@ -1392,7 +1392,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>SOM_CIE_56.doc</t>
+          <t>SOM_CIE_25.doc</t>
         </is>
       </c>
     </row>
@@ -1412,7 +1412,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>SOM_CIE_26.doc</t>
+          <t>SOM_CIE_11.doc</t>
         </is>
       </c>
     </row>
@@ -1432,7 +1432,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>SOM_CIE_8.doc</t>
+          <t>SOM_CIE_6.doc</t>
         </is>
       </c>
     </row>
@@ -1452,7 +1452,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>SOM_CIE_37.doc</t>
+          <t>SOM_CIE_57.doc</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1472,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>SOM_CIE_7.doc</t>
+          <t>SOM_CIE_41.doc</t>
         </is>
       </c>
     </row>
@@ -1492,7 +1492,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>SOM_CIE_41.doc</t>
+          <t>SOM_CIE_13.doc</t>
         </is>
       </c>
     </row>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>SOM_CIE_39.doc</t>
+          <t>SOM_CIE_32.doc</t>
         </is>
       </c>
     </row>
@@ -1532,7 +1532,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>SOM_CIE_42.doc</t>
+          <t>SOM_CIE_46.doc</t>
         </is>
       </c>
     </row>
@@ -1552,7 +1552,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>SOM_CIE_11.doc</t>
+          <t>SOM_CIE_55.doc</t>
         </is>
       </c>
     </row>
@@ -1572,7 +1572,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>SOM_CIE_9.doc</t>
+          <t>SOM_CIE_38.doc</t>
         </is>
       </c>
     </row>
@@ -1592,7 +1592,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>SOM_CIE_64.doc</t>
+          <t>SOM_CIE_55.doc</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>SOM_CIE_9.doc</t>
+          <t>SOM_CIE_14.doc</t>
         </is>
       </c>
     </row>
@@ -1632,7 +1632,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>SOM_CIE_22.doc</t>
+          <t>SOM_CIE_21.doc</t>
         </is>
       </c>
     </row>
